--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339083.5432293817</v>
+        <v>333795.4277346095</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11084500.8144203</v>
+        <v>11082730.87624904</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>392.4672030989774</v>
+        <v>102.2406663607618</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>108.4193899367865</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968124</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>151.9781207945037</v>
       </c>
       <c r="U4" t="n">
-        <v>137.4728904400072</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>200.397836379258</v>
       </c>
       <c r="Y5" t="n">
-        <v>172.328107379288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>134.8804247887038</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>198.1271089697151</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.8523420468652</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>127.0869402067105</v>
       </c>
       <c r="H8" t="n">
-        <v>109.2849573647113</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>93.67830721325009</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>150.7372373173127</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1303,16 +1303,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170.1266428991187</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>262.3100303792489</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>35.39580684889359</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>72.32821160596595</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>173.9362576693451</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>253.134654252749</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>41.73925564708318</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>101.7958956967123</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541632</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>838.2223408895009</v>
+        <v>947.1122143740988</v>
       </c>
       <c r="C2" t="n">
-        <v>838.2223408895009</v>
+        <v>947.1122143740988</v>
       </c>
       <c r="D2" t="n">
-        <v>452.7812121061686</v>
+        <v>561.6710855907666</v>
       </c>
       <c r="E2" t="n">
-        <v>452.7812121061686</v>
+        <v>561.6710855907666</v>
       </c>
       <c r="F2" t="n">
-        <v>439.9271776765504</v>
+        <v>144.7766471207443</v>
       </c>
       <c r="G2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354893</v>
+        <v>936.6744981739572</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>1628.169691667841</v>
+        <v>1733.055528520441</v>
       </c>
       <c r="W2" t="n">
-        <v>1628.169691667841</v>
+        <v>1733.055528520441</v>
       </c>
       <c r="X2" t="n">
-        <v>1238.717086600898</v>
+        <v>1343.602923453498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1238.717086600898</v>
+        <v>947.1122143740988</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>165.9350528732066</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.7610965666927</v>
+        <v>1484.752678454674</v>
       </c>
       <c r="C4" t="n">
-        <v>397.7610965666927</v>
+        <v>1484.752678454674</v>
       </c>
       <c r="D4" t="n">
-        <v>242.1279834692075</v>
+        <v>1484.752678454674</v>
       </c>
       <c r="E4" t="n">
-        <v>242.1279834692075</v>
+        <v>1329.193866313876</v>
       </c>
       <c r="F4" t="n">
-        <v>242.1279834692075</v>
+        <v>1329.193866313876</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865305</v>
+        <v>1329.193866313876</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865305</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865305</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1718.83300067169</v>
       </c>
       <c r="U4" t="n">
-        <v>806.0811764413506</v>
+        <v>1718.83300067169</v>
       </c>
       <c r="V4" t="n">
-        <v>806.0811764413506</v>
+        <v>1718.83300067169</v>
       </c>
       <c r="W4" t="n">
-        <v>806.0811764413506</v>
+        <v>1718.83300067169</v>
       </c>
       <c r="X4" t="n">
-        <v>806.0811764413506</v>
+        <v>1484.752678454674</v>
       </c>
       <c r="Y4" t="n">
-        <v>582.969115257994</v>
+        <v>1484.752678454674</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1600.219428693739</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="C5" t="n">
-        <v>1600.219428693739</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.219428693739</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402612</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282644</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>681.465724022112</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572951</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>1847.448174004346</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.78296973775</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.78296973775</v>
+        <v>1614.903139478094</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.78296973775</v>
+        <v>1614.903139478094</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.78296973775</v>
+        <v>1614.903139478094</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.78296973775</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="Y5" t="n">
-        <v>2000.714174405136</v>
+        <v>1412.481082529348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066505</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667427</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>442.058626788223</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991107</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569815</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653879</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1872.013835936255</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637619</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836527</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515169</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886236</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019523</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369535</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476118</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.8329774531654</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="C7" t="n">
-        <v>386.8329774531654</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="D7" t="n">
-        <v>231.1998643556801</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E7" t="n">
-        <v>231.1998643556801</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865305</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865305</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865305</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865305</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>620.9132996701823</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>620.9132996701823</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V7" t="n">
-        <v>620.9132996701823</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="W7" t="n">
-        <v>620.9132996701823</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="X7" t="n">
-        <v>386.8329774531654</v>
+        <v>257.0895356215378</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.8329774531654</v>
+        <v>257.0895356215378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>572.8537033227647</v>
+        <v>1371.194685525413</v>
       </c>
       <c r="C8" t="n">
-        <v>179.6782018256952</v>
+        <v>978.019184028343</v>
       </c>
       <c r="D8" t="n">
-        <v>179.6782018256952</v>
+        <v>592.5780552450108</v>
       </c>
       <c r="E8" t="n">
-        <v>179.6782018256952</v>
+        <v>592.5780552450108</v>
       </c>
       <c r="F8" t="n">
-        <v>166.8241673960771</v>
+        <v>175.6836167749885</v>
       </c>
       <c r="G8" t="n">
-        <v>157.7018159244843</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X8" t="n">
-        <v>969.3444124021636</v>
+        <v>1771.689431236809</v>
       </c>
       <c r="Y8" t="n">
-        <v>572.8537033227647</v>
+        <v>1771.689431236809</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1374.529131354181</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1960.027136360783</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.0409408113302</v>
+        <v>854.1354399024394</v>
       </c>
       <c r="C10" t="n">
-        <v>542.8358228773194</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="D10" t="n">
-        <v>390.5759872032662</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E10" t="n">
-        <v>235.0171750624687</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.414556352055</v>
+        <v>1439.569462514561</v>
       </c>
       <c r="C11" t="n">
-        <v>1290.035330001179</v>
+        <v>1118.190236163685</v>
       </c>
       <c r="D11" t="n">
-        <v>976.3904763640412</v>
+        <v>804.5453825265467</v>
       </c>
       <c r="E11" t="n">
-        <v>645.6032266267794</v>
+        <v>473.7581327892851</v>
       </c>
       <c r="F11" t="n">
-        <v>300.5050633029505</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="G11" t="n">
-        <v>300.5050633029505</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873814</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723526</v>
+        <v>2410.618696933718</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2410.618696933718</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917258</v>
+        <v>2092.962367012969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1940.113026917258</v>
+        <v>1768.267933079764</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
         <v>1458.313011372373</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.8748941930974</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="C13" t="n">
-        <v>376.4660514052805</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D13" t="n">
-        <v>292.6292134539891</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1230.985410981374</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>1195.232070729966</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401908</v>
+        <v>983.6979438073375</v>
       </c>
       <c r="X13" t="n">
-        <v>588.2866377382048</v>
+        <v>821.4138967365146</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.2866377382048</v>
+        <v>670.098110699352</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1890.088290684018</v>
+        <v>1467.291089243225</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.709064333142</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D14" t="n">
-        <v>1255.064210696004</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>924.2769609587424</v>
+        <v>815.1246131550879</v>
       </c>
       <c r="F14" t="n">
-        <v>579.1787976349137</v>
+        <v>470.0264498312595</v>
       </c>
       <c r="G14" t="n">
-        <v>237.8123172691105</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055488</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W14" t="n">
-        <v>2536.44309116997</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X14" t="n">
-        <v>2218.786761249221</v>
+        <v>2120.683993741633</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.786761249221</v>
+        <v>1795.989559808428</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.5526147385759</v>
+        <v>556.6863671542445</v>
       </c>
       <c r="C16" t="n">
-        <v>376.3917504485926</v>
+        <v>556.6863671542445</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485926</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539891</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1341.803790525892</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1177.88101384032</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310117</v>
+        <v>1177.88101384032</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771349</v>
+        <v>983.6979438073378</v>
       </c>
       <c r="W16" t="n">
-        <v>694.2484053545064</v>
+        <v>983.6979438073378</v>
       </c>
       <c r="X16" t="n">
-        <v>531.9643582836833</v>
+        <v>821.4138967365147</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.9643582836833</v>
+        <v>670.098110699352</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,13 +5595,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6075,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052482</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744569</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309769016</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1330.871943270413</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1876.872843314994</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150704</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043032</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076166</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067544</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076242</v>
+        <v>618.7004357135977</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729585</v>
+        <v>910.7916726541102</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831238</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,13 +7014,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7093,25 +7093,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7324,7 +7324,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,7 +7339,7 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
         <v>812.1990332879427</v>
@@ -7403,25 +7403,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7658,7 +7658,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1009.629923393023</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1059.426580900608</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>277.7768138244388</v>
+        <v>409.5242301737492</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3058082742467</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>211.1383459863602</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,13 +8225,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>674.6180797729754</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>193.6030671112566</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477023</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390585</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8532,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>621.5900809302183</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8942,10 +8942,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10191,16 +10191,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>351.8313913012157</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046931</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,25 +11139,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>301.8549375253374</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23273,7 +23273,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>79.63726463532355</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.297398429535938</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>156.8454324837585</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>88.33299499414883</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.82764986509721</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>61.34511236879277</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>55.68549871285553</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>27.91371488783193</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>970336.4307802395</v>
+        <v>969434.109359599</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>970336.4307802395</v>
+        <v>969434.109359599</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867379.8007833528</v>
+        <v>867379.8007833532</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>324597.9205680422</v>
+      </c>
+      <c r="C2" t="n">
+        <v>324597.9205680423</v>
+      </c>
+      <c r="D2" t="n">
         <v>324597.9205680421</v>
       </c>
-      <c r="C2" t="n">
-        <v>324597.9205680422</v>
-      </c>
-      <c r="D2" t="n">
-        <v>324597.920568042</v>
-      </c>
       <c r="E2" t="n">
-        <v>286846.2421639214</v>
+        <v>286846.2421639212</v>
       </c>
       <c r="F2" t="n">
-        <v>286846.2421639209</v>
+        <v>286846.2421639211</v>
       </c>
       <c r="G2" t="n">
         <v>324597.9205680429</v>
@@ -26332,7 +26332,7 @@
         <v>324597.9205680429</v>
       </c>
       <c r="I2" t="n">
-        <v>324597.9205680429</v>
+        <v>324597.9205680428</v>
       </c>
       <c r="J2" t="n">
         <v>324597.9205680426</v>
@@ -26341,19 +26341,19 @@
         <v>324597.9205680427</v>
       </c>
       <c r="L2" t="n">
-        <v>324597.9205680419</v>
+        <v>324597.9205680418</v>
       </c>
       <c r="M2" t="n">
         <v>324597.9205680428</v>
       </c>
       <c r="N2" t="n">
+        <v>324597.9205680429</v>
+      </c>
+      <c r="O2" t="n">
         <v>324597.9205680428</v>
       </c>
-      <c r="O2" t="n">
-        <v>324597.920568043</v>
-      </c>
       <c r="P2" t="n">
-        <v>324597.9205680429</v>
+        <v>324597.9205680427</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26439,13 +26439,13 @@
         <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
-        <v>161306.7834561732</v>
+        <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26457,7 +26457,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917901</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124106.5367829224</v>
+        <v>-120055.8647755077</v>
       </c>
       <c r="C6" t="n">
-        <v>58098.41150893364</v>
+        <v>53802.79225854749</v>
       </c>
       <c r="D6" t="n">
-        <v>51506.35016921116</v>
+        <v>43770.06094581957</v>
       </c>
       <c r="E6" t="n">
-        <v>8740.286489828548</v>
+        <v>8530.554943138695</v>
       </c>
       <c r="F6" t="n">
-        <v>120862.8479638726</v>
+        <v>120653.1164171833</v>
       </c>
       <c r="G6" t="n">
-        <v>58446.53472405131</v>
+        <v>58446.53472405125</v>
       </c>
       <c r="H6" t="n">
-        <v>105871.8602607333</v>
+        <v>105871.8602607332</v>
       </c>
       <c r="I6" t="n">
         <v>105871.8602607332</v>
       </c>
       <c r="J6" t="n">
-        <v>-107170.0573365527</v>
+        <v>-100653.7721819794</v>
       </c>
       <c r="K6" t="n">
-        <v>99632.09185795006</v>
+        <v>99632.09185795012</v>
       </c>
       <c r="L6" t="n">
-        <v>44449.5029233282</v>
+        <v>40400.6657128558</v>
       </c>
       <c r="M6" t="n">
-        <v>63671.03080111023</v>
+        <v>62619.33578992207</v>
       </c>
       <c r="N6" t="n">
         <v>105871.8602607332</v>
       </c>
       <c r="O6" t="n">
-        <v>78104.16621796205</v>
+        <v>78104.16621796187</v>
       </c>
       <c r="P6" t="n">
-        <v>105871.8602607333</v>
+        <v>105871.860260733</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473197</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.07831239473194</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="O4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014442</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407231</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,10 +27388,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.56392485789945</v>
+        <v>306.7904615961151</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.66263604343463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626819</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>81.38374051894451</v>
       </c>
       <c r="U4" t="n">
-        <v>145.1115134005109</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>185.1602426370158</v>
       </c>
       <c r="Y5" t="n">
-        <v>220.1976946093169</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>42.64064996654406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.23475234373308</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>18.46720968051883</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>281.9441877501664</v>
       </c>
       <c r="H8" t="n">
-        <v>211.557262564463</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>89.67763129113817</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.339544649197734</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,22 +28743,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28983,13 +28983,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>28.01250026485258</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159968</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566739</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045541</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224733</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.636002634527912</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>28.0125002648524</v>
-      </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>128.0517622267115</v>
+        <v>259.799178576022</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>381.9186862249347</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>118.4507870974713</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>525.4995884351913</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>43.30161987033139</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983904</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>205.2005069501696</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>529.2029588809064</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,10 +35662,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>216.1858117176445</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>259.4442692519038</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576887</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105785</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553812</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055085</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272654</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>295.0416534752652</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37245,7 +37245,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37482,7 +37482,7 @@
         <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>216.4828246711707</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.46926427500488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
